--- a/results/csp_list.xlsx
+++ b/results/csp_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DMolChar\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CF37DA-E868-4ADD-8CB5-3D6821E5A3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F19370-8824-48E9-8A99-BB0AAD324364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category strategies" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/results/csp_list.xlsx
+++ b/results/csp_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DMolChar\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F19370-8824-48E9-8A99-BB0AAD324364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2CFFBE-F5F0-4F96-9358-2BF065D9C146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>44896</v>
+        <v>44869</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -1117,6 +1117,9 @@
       </c>
       <c r="B31">
         <v>1</v>
+      </c>
+      <c r="C31">
+        <v>45172</v>
       </c>
       <c r="D31">
         <v>5</v>

--- a/results/csp_list.xlsx
+++ b/results/csp_list.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DMolChar\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2CFFBE-F5F0-4F96-9358-2BF065D9C146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A6F93D-C9A6-4678-9B40-7385AE6B0BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category strategies" sheetId="1" r:id="rId1"/>
     <sheet name="Unused CSP" sheetId="2" r:id="rId2"/>
+    <sheet name="report" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <r>
       <rPr>
@@ -309,12 +310,24 @@
       <t>1 is polysaccharide type (polymers), 2 is for Pirkle's type (small molecule connected to silica)</t>
     </r>
   </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>Encoded number</t>
+  </si>
+  <si>
+    <t># Compounds (before preprocessing)</t>
+  </si>
+  <si>
+    <t># Compounds (after preprocessing)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +378,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -405,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -436,6 +456,19 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -1331,4 +1364,342 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732E714D-99AC-4DCA-A6D2-C00015A9898C}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="13">
+        <v>90211</v>
+      </c>
+      <c r="C2" s="14">
+        <v>7</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1949</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="13">
+        <v>15723</v>
+      </c>
+      <c r="C3" s="14">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1679</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="13">
+        <v>90704</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15">
+        <v>918</v>
+      </c>
+      <c r="E4" s="15">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13">
+        <v>91423</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1201</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="13">
+        <v>91518</v>
+      </c>
+      <c r="C6" s="14">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1277</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="13">
+        <v>91119</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15">
+        <v>917</v>
+      </c>
+      <c r="E7" s="15">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13">
+        <v>90589</v>
+      </c>
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15">
+        <v>2773</v>
+      </c>
+      <c r="E8" s="15">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="13">
+        <v>90357</v>
+      </c>
+      <c r="C9" s="14">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1224</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="13">
+        <v>90879</v>
+      </c>
+      <c r="C10" s="14">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15">
+        <v>2965</v>
+      </c>
+      <c r="E10" s="15">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13">
+        <v>45172</v>
+      </c>
+      <c r="C11" s="14">
+        <v>16</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2347</v>
+      </c>
+      <c r="E11" s="15">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="13">
+        <v>90246</v>
+      </c>
+      <c r="C12" s="14">
+        <v>6</v>
+      </c>
+      <c r="D12" s="15">
+        <v>6914</v>
+      </c>
+      <c r="E12" s="15">
+        <v>6768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14">
+        <v>15</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1209</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="13">
+        <v>44869</v>
+      </c>
+      <c r="C14" s="14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2334</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="13">
+        <v>45167</v>
+      </c>
+      <c r="C15" s="14">
+        <v>9</v>
+      </c>
+      <c r="D15" s="15">
+        <v>5209</v>
+      </c>
+      <c r="E15" s="15">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="13">
+        <v>45173</v>
+      </c>
+      <c r="C16" s="14">
+        <v>8</v>
+      </c>
+      <c r="D16" s="15">
+        <v>25162</v>
+      </c>
+      <c r="E16" s="15">
+        <v>24234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13">
+        <v>394</v>
+      </c>
+      <c r="C17" s="14">
+        <v>13</v>
+      </c>
+      <c r="D17" s="15">
+        <v>2176</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="13">
+        <v>23735</v>
+      </c>
+      <c r="C18" s="14">
+        <v>11</v>
+      </c>
+      <c r="D18" s="15">
+        <v>16909</v>
+      </c>
+      <c r="E18" s="15">
+        <v>16531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13">
+        <v>3575</v>
+      </c>
+      <c r="C19" s="14">
+        <v>17</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1396</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/csp_list.xlsx
+++ b/results/csp_list.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DMolChar\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DMolChir\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A6F93D-C9A6-4678-9B40-7385AE6B0BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA142E7-ABE7-492C-85C2-0AEF92C3B07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category strategies" sheetId="1" r:id="rId1"/>
     <sheet name="Unused CSP" sheetId="2" r:id="rId2"/>
     <sheet name="report" sheetId="3" r:id="rId3"/>
+    <sheet name="tmp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <r>
       <rPr>
@@ -321,6 +322,39 @@
   </si>
   <si>
     <t># Compounds (after preprocessing)</t>
+  </si>
+  <si>
+    <t>CSP_ID</t>
+  </si>
+  <si>
+    <t>CSP_Encode</t>
+  </si>
+  <si>
+    <t>Short_Name</t>
+  </si>
+  <si>
+    <t>CSP_Category</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>OJ</t>
+  </si>
+  <si>
+    <t>IB</t>
   </si>
 </sst>
 </file>
@@ -448,15 +482,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -469,6 +494,15 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -1283,20 +1317,20 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
@@ -1345,7 +1379,7 @@
       <c r="B2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="15" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1356,7 +1390,7 @@
       <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1370,336 +1404,654 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732E714D-99AC-4DCA-A6D2-C00015A9898C}">
   <dimension ref="A1:E19"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="10">
+        <v>90211</v>
+      </c>
+      <c r="C2" s="11">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1949</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="10">
+        <v>15723</v>
+      </c>
+      <c r="C3" s="11">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1679</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10">
+        <v>90704</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12">
+        <v>918</v>
+      </c>
+      <c r="E4" s="12">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10">
+        <v>91423</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1201</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="10">
+        <v>91518</v>
+      </c>
+      <c r="C6" s="11">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1277</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="10">
+        <v>91119</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>917</v>
+      </c>
+      <c r="E7" s="12">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="10">
+        <v>90589</v>
+      </c>
+      <c r="C8" s="11">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2773</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="10">
+        <v>90357</v>
+      </c>
+      <c r="C9" s="11">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1224</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="10">
+        <v>90879</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2965</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10">
+        <v>45172</v>
+      </c>
+      <c r="C11" s="11">
+        <v>16</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2347</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10">
+        <v>90246</v>
+      </c>
+      <c r="C12" s="11">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12">
+        <v>6914</v>
+      </c>
+      <c r="E12" s="12">
+        <v>6768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>15</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1209</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44869</v>
+      </c>
+      <c r="C14" s="11">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2334</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10">
+        <v>45167</v>
+      </c>
+      <c r="C15" s="11">
+        <v>9</v>
+      </c>
+      <c r="D15" s="12">
+        <v>5209</v>
+      </c>
+      <c r="E15" s="12">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10">
+        <v>45173</v>
+      </c>
+      <c r="C16" s="11">
+        <v>8</v>
+      </c>
+      <c r="D16" s="12">
+        <v>25162</v>
+      </c>
+      <c r="E16" s="12">
+        <v>24234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10">
+        <v>394</v>
+      </c>
+      <c r="C17" s="11">
+        <v>13</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2176</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10">
+        <v>23735</v>
+      </c>
+      <c r="C18" s="11">
+        <v>11</v>
+      </c>
+      <c r="D18" s="12">
+        <v>16909</v>
+      </c>
+      <c r="E18" s="12">
+        <v>16531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10">
+        <v>3575</v>
+      </c>
+      <c r="C19" s="11">
+        <v>17</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1396</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC91B0D-5A85-42F7-B4B3-C247205D5C95}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>55</v>
+      <c r="B1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="13">
-        <v>90211</v>
-      </c>
-      <c r="C2" s="14">
-        <v>7</v>
-      </c>
-      <c r="D2" s="15">
-        <v>1949</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1945</v>
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="10">
+        <v>91423</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="13">
-        <v>15723</v>
-      </c>
-      <c r="C3" s="14">
-        <v>12</v>
-      </c>
-      <c r="D3" s="15">
-        <v>1679</v>
-      </c>
-      <c r="E3" s="15">
-        <v>1677</v>
+        <v>26</v>
+      </c>
+      <c r="C3" s="10">
+        <v>91119</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="13">
-        <v>90704</v>
-      </c>
-      <c r="C4" s="14">
-        <v>3</v>
-      </c>
-      <c r="D4" s="15">
-        <v>918</v>
-      </c>
-      <c r="E4" s="15">
-        <v>918</v>
+        <v>40</v>
+      </c>
+      <c r="C4" s="10">
+        <v>90879</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="13">
-        <v>91423</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1201</v>
-      </c>
-      <c r="E5" s="15">
-        <v>1168</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="10">
+        <v>90704</v>
+      </c>
+      <c r="D5" s="11">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="13">
-        <v>91518</v>
-      </c>
-      <c r="C6" s="14">
-        <v>14</v>
-      </c>
-      <c r="D6" s="15">
-        <v>1277</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1256</v>
+        <v>36</v>
+      </c>
+      <c r="C6" s="10">
+        <v>90589</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="13">
-        <v>91119</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15">
-        <v>917</v>
-      </c>
-      <c r="E7" s="15">
-        <v>917</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="10">
+        <v>90357</v>
+      </c>
+      <c r="D7" s="11">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="13">
-        <v>90589</v>
-      </c>
-      <c r="C8" s="14">
-        <v>4</v>
-      </c>
-      <c r="D8" s="15">
-        <v>2773</v>
-      </c>
-      <c r="E8" s="15">
-        <v>2677</v>
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="10">
+        <v>90246</v>
+      </c>
+      <c r="D8" s="11">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="13">
-        <v>90357</v>
-      </c>
-      <c r="C9" s="14">
-        <v>5</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1224</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1224</v>
+        <v>37</v>
+      </c>
+      <c r="C9" s="10">
+        <v>90211</v>
+      </c>
+      <c r="D9" s="11">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="13">
-        <v>90879</v>
-      </c>
-      <c r="C10" s="14">
-        <v>2</v>
-      </c>
-      <c r="D10" s="15">
-        <v>2965</v>
-      </c>
-      <c r="E10" s="15">
-        <v>2963</v>
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="10">
+        <v>45173</v>
+      </c>
+      <c r="D10" s="11">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="13">
-        <v>45172</v>
-      </c>
-      <c r="C11" s="14">
-        <v>16</v>
-      </c>
-      <c r="D11" s="15">
-        <v>2347</v>
-      </c>
-      <c r="E11" s="15">
-        <v>2306</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="10">
+        <v>45167</v>
+      </c>
+      <c r="D11" s="11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="13">
-        <v>90246</v>
-      </c>
-      <c r="C12" s="14">
-        <v>6</v>
-      </c>
-      <c r="D12" s="15">
-        <v>6914</v>
-      </c>
-      <c r="E12" s="15">
-        <v>6768</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="10">
+        <v>44869</v>
+      </c>
+      <c r="D12" s="11">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="14">
-        <v>15</v>
-      </c>
-      <c r="D13" s="15">
-        <v>1209</v>
-      </c>
-      <c r="E13" s="15">
-        <v>1202</v>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="10">
+        <v>23735</v>
+      </c>
+      <c r="D13" s="11">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="13">
-        <v>44869</v>
-      </c>
-      <c r="C14" s="14">
-        <v>10</v>
-      </c>
-      <c r="D14" s="15">
-        <v>2334</v>
-      </c>
-      <c r="E14" s="15">
-        <v>2315</v>
+        <v>35</v>
+      </c>
+      <c r="C14" s="10">
+        <v>15723</v>
+      </c>
+      <c r="D14" s="11">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="13">
-        <v>45167</v>
-      </c>
-      <c r="C15" s="14">
-        <v>9</v>
-      </c>
-      <c r="D15" s="15">
-        <v>5209</v>
-      </c>
-      <c r="E15" s="15">
-        <v>5122</v>
+        <v>10</v>
+      </c>
+      <c r="C15" s="10">
+        <v>394</v>
+      </c>
+      <c r="D15" s="11">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="13">
-        <v>45173</v>
-      </c>
-      <c r="C16" s="14">
-        <v>8</v>
-      </c>
-      <c r="D16" s="15">
-        <v>25162</v>
-      </c>
-      <c r="E16" s="15">
-        <v>24234</v>
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="10">
+        <v>91518</v>
+      </c>
+      <c r="D16" s="11">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="13">
-        <v>394</v>
-      </c>
-      <c r="C17" s="14">
-        <v>13</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2176</v>
-      </c>
-      <c r="E17" s="15">
-        <v>2176</v>
+        <v>5</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="13">
-        <v>23735</v>
-      </c>
-      <c r="C18" s="14">
-        <v>11</v>
-      </c>
-      <c r="D18" s="15">
-        <v>16909</v>
-      </c>
-      <c r="E18" s="15">
-        <v>16531</v>
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="10">
+        <v>45172</v>
+      </c>
+      <c r="D18" s="11">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="13">
+      <c r="C19" s="10">
         <v>3575</v>
       </c>
-      <c r="C19" s="14">
+      <c r="D19" s="11">
         <v>17</v>
       </c>
-      <c r="D19" s="15">
-        <v>1396</v>
-      </c>
-      <c r="E19" s="15">
-        <v>1396</v>
+      <c r="E19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
+    <sortCondition ref="D2:D19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/csp_list.xlsx
+++ b/results/csp_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DMolChir\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA142E7-ABE7-492C-85C2-0AEF92C3B07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3FAE68-605A-4F33-A5C5-D89D1EC4A7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category strategies" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
     <sheet name="report" sheetId="3" r:id="rId3"/>
     <sheet name="tmp" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <r>
       <rPr>
@@ -318,12 +329,6 @@
     <t>Encoded number</t>
   </si>
   <si>
-    <t># Compounds (before preprocessing)</t>
-  </si>
-  <si>
-    <t># Compounds (after preprocessing)</t>
-  </si>
-  <si>
     <t>CSP_ID</t>
   </si>
   <si>
@@ -355,6 +360,33 @@
   </si>
   <si>
     <t>IB</t>
+  </si>
+  <si>
+    <t>Configuration type</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>No. of Compounds</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>After proprocessing</t>
+  </si>
+  <si>
+    <t>ChirBase</t>
+  </si>
+  <si>
+    <t>CMRT</t>
+  </si>
+  <si>
+    <t>Overlap</t>
   </si>
 </sst>
 </file>
@@ -438,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -455,11 +487,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -492,7 +619,11 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -502,6 +633,47 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1317,20 +1489,20 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="A43" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
     </row>
     <row r="44" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
@@ -1379,7 +1551,7 @@
       <c r="B2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1390,7 +1562,7 @@
       <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1402,342 +1574,583 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732E714D-99AC-4DCA-A6D2-C00015A9898C}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="22">
+        <v>91119</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24">
+        <v>917</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
+        <v>917</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="26">
+        <v>90704</v>
+      </c>
+      <c r="C5" s="27">
+        <v>3</v>
+      </c>
+      <c r="D5" s="28">
+        <v>918</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>918</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="26">
+        <v>91423</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28">
+        <v>1201</v>
+      </c>
+      <c r="E6" s="28">
+        <v>300</v>
+      </c>
+      <c r="F6" s="28">
+        <v>1168</v>
+      </c>
+      <c r="G6" s="28">
+        <v>285</v>
+      </c>
+      <c r="H6" s="28">
+        <v>0</v>
+      </c>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26">
+        <v>2</v>
+      </c>
+      <c r="C7" s="27">
+        <v>15</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1209</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
+        <v>1202</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0</v>
+      </c>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="26">
+        <v>90357</v>
+      </c>
+      <c r="C8" s="27">
+        <v>5</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1224</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0</v>
+      </c>
+      <c r="F8" s="28">
+        <v>1224</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28">
+        <v>0</v>
+      </c>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="26">
+        <v>91518</v>
+      </c>
+      <c r="C9" s="27">
+        <v>14</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1277</v>
+      </c>
+      <c r="E9" s="28">
+        <v>931</v>
+      </c>
+      <c r="F9" s="28">
+        <v>1256</v>
+      </c>
+      <c r="G9" s="28">
+        <v>897</v>
+      </c>
+      <c r="H9" s="28">
+        <v>21</v>
+      </c>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="26">
+        <v>3575</v>
+      </c>
+      <c r="C10" s="27">
+        <v>17</v>
+      </c>
+      <c r="D10" s="28">
+        <v>1396</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <v>1396</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0</v>
+      </c>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="26">
+        <v>15723</v>
+      </c>
+      <c r="C11" s="27">
+        <v>12</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1679</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
+        <v>1677</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0</v>
+      </c>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B12" s="12">
         <v>90211</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C12" s="13">
         <v>7</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D12" s="14">
         <v>1949</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
         <v>1945</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="10">
-        <v>15723</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="26">
+        <v>394</v>
+      </c>
+      <c r="C13" s="27">
+        <v>13</v>
+      </c>
+      <c r="D13" s="28">
+        <v>2176</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
+        <v>2176</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28">
+        <v>0</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="26">
+        <v>45172</v>
+      </c>
+      <c r="C14" s="27">
+        <v>16</v>
+      </c>
+      <c r="D14" s="28">
+        <v>2347</v>
+      </c>
+      <c r="E14" s="28">
+        <v>805</v>
+      </c>
+      <c r="F14" s="28">
+        <v>2306</v>
+      </c>
+      <c r="G14" s="28">
+        <v>731</v>
+      </c>
+      <c r="H14" s="28">
+        <v>25</v>
+      </c>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="26">
+        <v>44869</v>
+      </c>
+      <c r="C15" s="27">
+        <v>10</v>
+      </c>
+      <c r="D15" s="28">
+        <v>2334</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0</v>
+      </c>
+      <c r="F15" s="28">
+        <v>2315</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="26">
+        <v>90589</v>
+      </c>
+      <c r="C16" s="27">
+        <v>4</v>
+      </c>
+      <c r="D16" s="28">
+        <v>2773</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0</v>
+      </c>
+      <c r="F16" s="28">
+        <v>2677</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" s="28">
+        <v>0</v>
+      </c>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="26">
+        <v>90879</v>
+      </c>
+      <c r="C17" s="27">
+        <v>2</v>
+      </c>
+      <c r="D17" s="28">
+        <v>2965</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0</v>
+      </c>
+      <c r="F17" s="28">
+        <v>2963</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0</v>
+      </c>
+      <c r="H17" s="28">
+        <v>0</v>
+      </c>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12">
-        <v>1679</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="10">
-        <v>90704</v>
-      </c>
-      <c r="C4" s="11">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12">
-        <v>918</v>
-      </c>
-      <c r="E4" s="12">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="10">
-        <v>91423</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1201</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="10">
-        <v>91518</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B18" s="26">
+        <v>45167</v>
+      </c>
+      <c r="C18" s="27">
+        <v>9</v>
+      </c>
+      <c r="D18" s="28">
+        <v>5209</v>
+      </c>
+      <c r="E18" s="28">
+        <v>156</v>
+      </c>
+      <c r="F18" s="28">
+        <v>5122</v>
+      </c>
+      <c r="G18" s="28">
+        <v>152</v>
+      </c>
+      <c r="H18" s="28">
+        <v>13</v>
+      </c>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="26">
+        <v>90246</v>
+      </c>
+      <c r="C19" s="27">
+        <v>6</v>
+      </c>
+      <c r="D19" s="28">
+        <v>6914</v>
+      </c>
+      <c r="E19" s="28">
+        <v>111</v>
+      </c>
+      <c r="F19" s="28">
+        <v>6768</v>
+      </c>
+      <c r="G19" s="28">
+        <v>103</v>
+      </c>
+      <c r="H19" s="28">
+        <v>5</v>
+      </c>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="26">
+        <v>23735</v>
+      </c>
+      <c r="C20" s="27">
+        <v>11</v>
+      </c>
+      <c r="D20" s="28">
+        <v>16909</v>
+      </c>
+      <c r="E20" s="28">
+        <v>292</v>
+      </c>
+      <c r="F20" s="28">
+        <v>16531</v>
+      </c>
+      <c r="G20" s="28">
+        <v>271</v>
+      </c>
+      <c r="H20" s="28">
         <v>14</v>
       </c>
-      <c r="D6" s="12">
-        <v>1277</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="10">
-        <v>91119</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12">
-        <v>917</v>
-      </c>
-      <c r="E7" s="12">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="10">
-        <v>90589</v>
-      </c>
-      <c r="C8" s="11">
-        <v>4</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2773</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2677</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="10">
-        <v>90357</v>
-      </c>
-      <c r="C9" s="11">
-        <v>5</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1224</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="10">
-        <v>90879</v>
-      </c>
-      <c r="C10" s="11">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12">
-        <v>2965</v>
-      </c>
-      <c r="E10" s="12">
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="10">
-        <v>45172</v>
-      </c>
-      <c r="C11" s="11">
-        <v>16</v>
-      </c>
-      <c r="D11" s="12">
-        <v>2347</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10">
-        <v>90246</v>
-      </c>
-      <c r="C12" s="11">
-        <v>6</v>
-      </c>
-      <c r="D12" s="12">
-        <v>6914</v>
-      </c>
-      <c r="E12" s="12">
-        <v>6768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="10">
-        <v>2</v>
-      </c>
-      <c r="C13" s="11">
-        <v>15</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1209</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="10">
-        <v>44869</v>
-      </c>
-      <c r="C14" s="11">
-        <v>10</v>
-      </c>
-      <c r="D14" s="12">
-        <v>2334</v>
-      </c>
-      <c r="E14" s="12">
-        <v>2315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="10">
-        <v>45167</v>
-      </c>
-      <c r="C15" s="11">
-        <v>9</v>
-      </c>
-      <c r="D15" s="12">
-        <v>5209</v>
-      </c>
-      <c r="E15" s="12">
-        <v>5122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B21" s="12">
         <v>45173</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C21" s="13">
         <v>8</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D21" s="14">
         <v>25162</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E21" s="14">
+        <v>178</v>
+      </c>
+      <c r="F21" s="14">
         <v>24234</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="10">
-        <v>394</v>
-      </c>
-      <c r="C17" s="11">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12">
-        <v>2176</v>
-      </c>
-      <c r="E17" s="12">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="10">
-        <v>23735</v>
-      </c>
-      <c r="C18" s="11">
-        <v>11</v>
-      </c>
-      <c r="D18" s="12">
-        <v>16909</v>
-      </c>
-      <c r="E18" s="12">
-        <v>16531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="10">
-        <v>3575</v>
-      </c>
-      <c r="C19" s="11">
-        <v>17</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1396</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1396</v>
-      </c>
+      <c r="G21" s="14">
+        <v>172</v>
+      </c>
+      <c r="H21" s="14">
+        <v>8</v>
+      </c>
+      <c r="I21" s="32"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F21">
+    <sortCondition ref="F4:F21"/>
+  </sortState>
+  <mergeCells count="9">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="I4:I12"/>
+    <mergeCell ref="I13:I21"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I1:I3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1745,7 +2158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC91B0D-5A85-42F7-B4B3-C247205D5C95}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1763,16 +2176,16 @@
         <v>52</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1780,7 +2193,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="10">
         <v>91423</v>
@@ -1867,7 +2280,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="10">
         <v>90246</v>
@@ -1898,7 +2311,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="10">
         <v>45173</v>
@@ -1915,7 +2328,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="10">
         <v>45167</v>
@@ -1946,7 +2359,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="10">
         <v>23735</v>
@@ -1991,7 +2404,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="10">
         <v>91518</v>
@@ -2022,7 +2435,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="10">
         <v>45172</v>
